--- a/SubmitPaymentData.xlsx
+++ b/SubmitPaymentData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70963E5C-9C0B-443D-A807-03BC13EC34AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="13170"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SubmitPPIPayment" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
     <sheet name="Negative" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1485,20 +1486,26 @@
     <t>Fails</t>
   </si>
   <si>
-    <t>12/20</t>
-  </si>
-  <si>
-    <t>12-20</t>
+    <t>12/27</t>
+  </si>
+  <si>
+    <t>12-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1830,12 +1837,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BN138" sqref="BN138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13766,13 +13773,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BT95"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -21575,7 +21583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BT8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22448,7 +22456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23481,7 +23489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:B128"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SubmitPaymentData.xlsx
+++ b/SubmitPaymentData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70963E5C-9C0B-443D-A807-03BC13EC34AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C0E823-9C8F-4027-9546-2A16A46EF2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="2670" windowWidth="31880" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SubmitPPIPayment" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4787" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4918" uniqueCount="487">
   <si>
     <t>Notes</t>
   </si>
@@ -1840,89 +1840,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN138" sqref="BN138"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BD5" sqref="BD5:BD141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3828125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.15234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.3828125" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.69140625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="105" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.140625" style="1"/>
+    <col min="72" max="72" width="7.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>115</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>116</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>91</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AZ5" s="1">
         <v>4106280790</v>
@@ -2264,9 +2264,13 @@
       <c r="BB5" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="BD5" t="s">
+        <v>276</v>
+      </c>
       <c r="BE5" s="1">
         <v>22201</v>
       </c>
+      <c r="BG5" s="2"/>
       <c r="BM5" s="1">
         <v>145</v>
       </c>
@@ -2279,6 +2283,9 @@
       <c r="BP5" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="BQ5" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="BR5" s="1">
         <v>50018</v>
       </c>
@@ -2289,7 +2296,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>120</v>
       </c>
@@ -2330,7 +2337,7 @@
         <v>91</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AZ6" s="1">
         <v>4106280790</v>
@@ -2341,9 +2348,13 @@
       <c r="BB6" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="BD6" t="s">
+        <v>276</v>
+      </c>
       <c r="BE6" s="1">
         <v>22201</v>
       </c>
+      <c r="BG6" s="2"/>
       <c r="BH6" s="1">
         <v>256072691</v>
       </c>
@@ -2359,6 +2370,9 @@
       <c r="BP6" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="BQ6" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="BR6" s="1">
         <v>50018</v>
       </c>
@@ -2369,7 +2383,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -2410,7 +2424,7 @@
         <v>91</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>270</v>
+        <v>88</v>
       </c>
       <c r="AZ7" s="1">
         <v>4106280790</v>
@@ -2421,9 +2435,13 @@
       <c r="BB7" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="BD7" t="s">
+        <v>276</v>
+      </c>
       <c r="BE7" s="1">
         <v>22201</v>
       </c>
+      <c r="BG7" s="2"/>
       <c r="BH7" s="1">
         <v>256072691</v>
       </c>
@@ -2439,6 +2457,9 @@
       <c r="BP7" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="BQ7" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="BR7" s="1">
         <v>50018</v>
       </c>
@@ -2449,7 +2470,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -2490,17 +2511,23 @@
         <v>91</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>270</v>
+        <v>88</v>
       </c>
       <c r="AZ8" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD8" t="s">
+        <v>276</v>
+      </c>
       <c r="BE8" s="1">
         <v>22201</v>
       </c>
       <c r="BF8" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="BG8" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="BH8" s="1">
         <v>256072691</v>
       </c>
@@ -2516,6 +2543,9 @@
       <c r="BP8" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="BQ8" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="BR8" s="1">
         <v>50018</v>
       </c>
@@ -2526,7 +2556,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>127</v>
       </c>
@@ -2657,7 +2687,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
@@ -2791,7 +2821,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>129</v>
       </c>
@@ -2925,7 +2955,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>130</v>
       </c>
@@ -3059,7 +3089,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>123</v>
       </c>
@@ -3114,6 +3144,9 @@
       <c r="BB13" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD13" t="s">
+        <v>276</v>
+      </c>
       <c r="BE13" s="1">
         <v>22201</v>
       </c>
@@ -3129,6 +3162,9 @@
       <c r="BP13" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="BQ13" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="BR13" s="1">
         <v>50018</v>
       </c>
@@ -3139,7 +3175,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>124</v>
       </c>
@@ -3191,6 +3227,9 @@
       <c r="BB14" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD14" t="s">
+        <v>276</v>
+      </c>
       <c r="BE14" s="1">
         <v>22201</v>
       </c>
@@ -3209,6 +3248,9 @@
       <c r="BP14" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="BQ14" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="BR14" s="1">
         <v>50018</v>
       </c>
@@ -3219,7 +3261,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -3271,6 +3313,9 @@
       <c r="BB15" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD15" t="s">
+        <v>276</v>
+      </c>
       <c r="BE15" s="1">
         <v>22201</v>
       </c>
@@ -3299,7 +3344,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>126</v>
       </c>
@@ -3345,6 +3390,9 @@
       <c r="AZ16" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD16" t="s">
+        <v>276</v>
+      </c>
       <c r="BE16" s="1">
         <v>22201</v>
       </c>
@@ -3376,7 +3424,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
@@ -3507,7 +3555,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>132</v>
       </c>
@@ -3641,7 +3689,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>133</v>
       </c>
@@ -3775,7 +3823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>134</v>
       </c>
@@ -3909,7 +3957,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>254</v>
       </c>
@@ -3964,6 +4012,9 @@
       <c r="BB21" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="BD21" t="s">
+        <v>276</v>
+      </c>
       <c r="BE21" s="1">
         <v>22201</v>
       </c>
@@ -3989,7 +4040,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>255</v>
       </c>
@@ -4041,6 +4092,9 @@
       <c r="BB22" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="BD22" t="s">
+        <v>276</v>
+      </c>
       <c r="BE22" s="1">
         <v>22201</v>
       </c>
@@ -4072,7 +4126,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>256</v>
       </c>
@@ -4124,6 +4178,9 @@
       <c r="BB23" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="BD23" t="s">
+        <v>276</v>
+      </c>
       <c r="BE23" s="1">
         <v>22201</v>
       </c>
@@ -4152,7 +4209,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>257</v>
       </c>
@@ -4198,6 +4255,9 @@
       <c r="AZ24" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD24" t="s">
+        <v>276</v>
+      </c>
       <c r="BE24" s="1">
         <v>22201</v>
       </c>
@@ -4232,7 +4292,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>260</v>
       </c>
@@ -4363,7 +4423,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>261</v>
       </c>
@@ -4500,7 +4560,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>262</v>
       </c>
@@ -4634,7 +4694,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>263</v>
       </c>
@@ -4771,7 +4831,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>137</v>
       </c>
@@ -4826,6 +4886,9 @@
       <c r="BB29" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD29" t="s">
+        <v>276</v>
+      </c>
       <c r="BE29" s="1">
         <v>22201</v>
       </c>
@@ -4851,7 +4914,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>138</v>
       </c>
@@ -4903,6 +4966,9 @@
       <c r="BB30" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD30" t="s">
+        <v>276</v>
+      </c>
       <c r="BE30" s="1">
         <v>22201</v>
       </c>
@@ -4931,7 +4997,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>139</v>
       </c>
@@ -4983,6 +5049,9 @@
       <c r="BB31" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD31" t="s">
+        <v>276</v>
+      </c>
       <c r="BE31" s="1">
         <v>22201</v>
       </c>
@@ -5011,7 +5080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>140</v>
       </c>
@@ -5057,6 +5126,9 @@
       <c r="AZ32" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD32" t="s">
+        <v>276</v>
+      </c>
       <c r="BE32" s="1">
         <v>22201</v>
       </c>
@@ -5088,7 +5160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
@@ -5143,6 +5215,9 @@
       <c r="BB33" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="BD33" t="s">
+        <v>276</v>
+      </c>
       <c r="BE33" s="1">
         <v>22201</v>
       </c>
@@ -5168,7 +5243,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>142</v>
       </c>
@@ -5220,6 +5295,9 @@
       <c r="BB34" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="BD34" t="s">
+        <v>276</v>
+      </c>
       <c r="BE34" s="1">
         <v>22201</v>
       </c>
@@ -5251,7 +5329,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>143</v>
       </c>
@@ -5303,6 +5381,9 @@
       <c r="BB35" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="BD35" t="s">
+        <v>276</v>
+      </c>
       <c r="BE35" s="1">
         <v>22201</v>
       </c>
@@ -5331,7 +5412,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>144</v>
       </c>
@@ -5377,6 +5458,9 @@
       <c r="AZ36" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD36" t="s">
+        <v>276</v>
+      </c>
       <c r="BE36" s="1">
         <v>22201</v>
       </c>
@@ -5411,7 +5495,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
@@ -5466,6 +5550,9 @@
       <c r="BB37" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="BD37" t="s">
+        <v>276</v>
+      </c>
       <c r="BE37" s="1">
         <v>22201</v>
       </c>
@@ -5491,7 +5578,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>146</v>
       </c>
@@ -5543,6 +5630,9 @@
       <c r="BB38" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="BD38" t="s">
+        <v>276</v>
+      </c>
       <c r="BE38" s="1">
         <v>22201</v>
       </c>
@@ -5574,7 +5664,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>147</v>
       </c>
@@ -5626,6 +5716,9 @@
       <c r="BB39" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="BD39" t="s">
+        <v>276</v>
+      </c>
       <c r="BE39" s="1">
         <v>22201</v>
       </c>
@@ -5654,7 +5747,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>148</v>
       </c>
@@ -5706,6 +5799,9 @@
       <c r="BB40" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="BD40" t="s">
+        <v>276</v>
+      </c>
       <c r="BE40" s="1">
         <v>22201</v>
       </c>
@@ -5740,7 +5836,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
@@ -5795,6 +5891,9 @@
       <c r="BB41" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD41" t="s">
+        <v>276</v>
+      </c>
       <c r="BE41" s="1">
         <v>22201</v>
       </c>
@@ -5820,7 +5919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>264</v>
       </c>
@@ -5869,6 +5968,9 @@
       <c r="BB42" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD42" t="s">
+        <v>276</v>
+      </c>
       <c r="BE42" s="1">
         <v>22201</v>
       </c>
@@ -5894,7 +5996,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>267</v>
       </c>
@@ -5946,6 +6048,9 @@
       <c r="BB43" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD43" t="s">
+        <v>276</v>
+      </c>
       <c r="BE43" s="1">
         <v>22201</v>
       </c>
@@ -5971,7 +6076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>265</v>
       </c>
@@ -6023,6 +6128,9 @@
       <c r="BB44" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD44" t="s">
+        <v>276</v>
+      </c>
       <c r="BE44" s="1">
         <v>22201</v>
       </c>
@@ -6051,7 +6159,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>266</v>
       </c>
@@ -6104,6 +6212,9 @@
       <c r="BB45" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD45" t="s">
+        <v>276</v>
+      </c>
       <c r="BE45" s="1">
         <v>22201</v>
       </c>
@@ -6132,7 +6243,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>268</v>
       </c>
@@ -6187,6 +6298,9 @@
       <c r="BB46" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD46" t="s">
+        <v>276</v>
+      </c>
       <c r="BE46" s="1">
         <v>22201</v>
       </c>
@@ -6209,7 +6323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>269</v>
       </c>
@@ -6264,6 +6378,9 @@
       <c r="BB47" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD47" t="s">
+        <v>276</v>
+      </c>
       <c r="BE47" s="1">
         <v>22201</v>
       </c>
@@ -6286,7 +6403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>223</v>
       </c>
@@ -6332,6 +6449,9 @@
       <c r="AZ48" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD48" t="s">
+        <v>276</v>
+      </c>
       <c r="BE48" s="1">
         <v>22201</v>
       </c>
@@ -6363,7 +6483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>154</v>
       </c>
@@ -6418,6 +6538,9 @@
       <c r="BB49" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD49" t="s">
+        <v>276</v>
+      </c>
       <c r="BE49" s="1">
         <v>22201</v>
       </c>
@@ -6443,7 +6566,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>155</v>
       </c>
@@ -6495,6 +6618,9 @@
       <c r="BB50" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD50" t="s">
+        <v>276</v>
+      </c>
       <c r="BE50" s="1">
         <v>22201</v>
       </c>
@@ -6523,7 +6649,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>156</v>
       </c>
@@ -6575,6 +6701,9 @@
       <c r="BB51" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD51" t="s">
+        <v>276</v>
+      </c>
       <c r="BE51" s="1">
         <v>22201</v>
       </c>
@@ -6603,7 +6732,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>157</v>
       </c>
@@ -6649,6 +6778,9 @@
       <c r="AZ52" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD52" t="s">
+        <v>276</v>
+      </c>
       <c r="BE52" s="1">
         <v>22201</v>
       </c>
@@ -6680,7 +6812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -6735,6 +6867,9 @@
       <c r="BB53" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="BD53" t="s">
+        <v>276</v>
+      </c>
       <c r="BE53" s="1">
         <v>22201</v>
       </c>
@@ -6760,7 +6895,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>159</v>
       </c>
@@ -6812,6 +6947,9 @@
       <c r="BB54" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="BD54" t="s">
+        <v>276</v>
+      </c>
       <c r="BE54" s="1">
         <v>22201</v>
       </c>
@@ -6840,7 +6978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -6892,6 +7030,9 @@
       <c r="BB55" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="BD55" t="s">
+        <v>276</v>
+      </c>
       <c r="BE55" s="1">
         <v>22201</v>
       </c>
@@ -6920,7 +7061,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>161</v>
       </c>
@@ -6966,6 +7107,9 @@
       <c r="AZ56" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD56" t="s">
+        <v>276</v>
+      </c>
       <c r="BE56" s="1">
         <v>22201</v>
       </c>
@@ -6997,7 +7141,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>162</v>
       </c>
@@ -7052,6 +7196,9 @@
       <c r="BB57" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="BD57" t="s">
+        <v>276</v>
+      </c>
       <c r="BE57" s="1">
         <v>22201</v>
       </c>
@@ -7077,7 +7224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>163</v>
       </c>
@@ -7129,6 +7276,9 @@
       <c r="BB58" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="BD58" t="s">
+        <v>276</v>
+      </c>
       <c r="BE58" s="1">
         <v>22201</v>
       </c>
@@ -7157,7 +7307,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>164</v>
       </c>
@@ -7209,6 +7359,9 @@
       <c r="BB59" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="BD59" t="s">
+        <v>276</v>
+      </c>
       <c r="BE59" s="1">
         <v>22201</v>
       </c>
@@ -7237,7 +7390,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>165</v>
       </c>
@@ -7289,6 +7442,9 @@
       <c r="BB60" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="BD60" t="s">
+        <v>276</v>
+      </c>
       <c r="BE60" s="1">
         <v>22201</v>
       </c>
@@ -7320,7 +7476,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>167</v>
       </c>
@@ -7375,6 +7531,9 @@
       <c r="BB61" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD61" t="s">
+        <v>276</v>
+      </c>
       <c r="BE61" s="1">
         <v>22201</v>
       </c>
@@ -7400,7 +7559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>168</v>
       </c>
@@ -7452,6 +7611,9 @@
       <c r="BB62" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD62" t="s">
+        <v>276</v>
+      </c>
       <c r="BE62" s="1">
         <v>22201</v>
       </c>
@@ -7480,7 +7642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>169</v>
       </c>
@@ -7532,6 +7694,9 @@
       <c r="BB63" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD63" t="s">
+        <v>276</v>
+      </c>
       <c r="BE63" s="1">
         <v>22201</v>
       </c>
@@ -7560,7 +7725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>170</v>
       </c>
@@ -7606,6 +7771,9 @@
       <c r="AZ64" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD64" t="s">
+        <v>276</v>
+      </c>
       <c r="BE64" s="1">
         <v>22201</v>
       </c>
@@ -7637,7 +7805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>171</v>
       </c>
@@ -7692,6 +7860,9 @@
       <c r="BB65" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD65" t="s">
+        <v>276</v>
+      </c>
       <c r="BE65" s="1">
         <v>22201</v>
       </c>
@@ -7717,7 +7888,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>172</v>
       </c>
@@ -7769,6 +7940,9 @@
       <c r="BB66" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD66" t="s">
+        <v>276</v>
+      </c>
       <c r="BE66" s="1">
         <v>22201</v>
       </c>
@@ -7797,7 +7971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>173</v>
       </c>
@@ -7849,6 +8023,9 @@
       <c r="BB67" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD67" t="s">
+        <v>276</v>
+      </c>
       <c r="BE67" s="1">
         <v>22201</v>
       </c>
@@ -7877,7 +8054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>174</v>
       </c>
@@ -7923,6 +8100,9 @@
       <c r="AZ68" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD68" t="s">
+        <v>276</v>
+      </c>
       <c r="BE68" s="1">
         <v>22201</v>
       </c>
@@ -7954,7 +8134,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>175</v>
       </c>
@@ -8006,6 +8186,9 @@
       <c r="BB69" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD69" t="s">
+        <v>276</v>
+      </c>
       <c r="BE69" s="1">
         <v>22201</v>
       </c>
@@ -8031,7 +8214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>176</v>
       </c>
@@ -8080,6 +8263,9 @@
       <c r="BB70" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD70" t="s">
+        <v>276</v>
+      </c>
       <c r="BE70" s="1">
         <v>22201</v>
       </c>
@@ -8108,7 +8294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>177</v>
       </c>
@@ -8157,6 +8343,9 @@
       <c r="BB71" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD71" t="s">
+        <v>276</v>
+      </c>
       <c r="BE71" s="1">
         <v>22201</v>
       </c>
@@ -8185,7 +8374,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>178</v>
       </c>
@@ -8228,6 +8417,9 @@
       <c r="AZ72" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD72" t="s">
+        <v>276</v>
+      </c>
       <c r="BE72" s="1">
         <v>22201</v>
       </c>
@@ -8259,7 +8451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>179</v>
       </c>
@@ -8311,6 +8503,9 @@
       <c r="BB73" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD73" t="s">
+        <v>276</v>
+      </c>
       <c r="BE73" s="1">
         <v>22201</v>
       </c>
@@ -8339,7 +8534,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="74" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>180</v>
       </c>
@@ -8388,6 +8583,9 @@
       <c r="BB74" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD74" t="s">
+        <v>276</v>
+      </c>
       <c r="BE74" s="1">
         <v>22201</v>
       </c>
@@ -8419,7 +8617,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="75" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>181</v>
       </c>
@@ -8468,6 +8666,9 @@
       <c r="BB75" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD75" t="s">
+        <v>276</v>
+      </c>
       <c r="BE75" s="1">
         <v>22201</v>
       </c>
@@ -8499,7 +8700,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="76" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>182</v>
       </c>
@@ -8542,6 +8743,9 @@
       <c r="AZ76" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD76" t="s">
+        <v>276</v>
+      </c>
       <c r="BE76" s="1">
         <v>22201</v>
       </c>
@@ -8576,7 +8780,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="77" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>183</v>
       </c>
@@ -8628,6 +8832,9 @@
       <c r="BB77" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD77" t="s">
+        <v>276</v>
+      </c>
       <c r="BE77" s="1">
         <v>22201</v>
       </c>
@@ -8656,7 +8863,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="78" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>184</v>
       </c>
@@ -8705,6 +8912,9 @@
       <c r="BB78" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD78" t="s">
+        <v>276</v>
+      </c>
       <c r="BE78" s="1">
         <v>22201</v>
       </c>
@@ -8736,7 +8946,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="79" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>185</v>
       </c>
@@ -8785,6 +8995,9 @@
       <c r="BB79" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD79" t="s">
+        <v>276</v>
+      </c>
       <c r="BE79" s="1">
         <v>22201</v>
       </c>
@@ -8816,7 +9029,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="80" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>186</v>
       </c>
@@ -8859,6 +9072,9 @@
       <c r="AZ80" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD80" t="s">
+        <v>276</v>
+      </c>
       <c r="BE80" s="1">
         <v>22201</v>
       </c>
@@ -8893,7 +9109,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="81" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>187</v>
       </c>
@@ -8948,6 +9164,9 @@
       <c r="BB81" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD81" t="s">
+        <v>276</v>
+      </c>
       <c r="BE81" s="1">
         <v>22201</v>
       </c>
@@ -8973,7 +9192,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>188</v>
       </c>
@@ -9025,6 +9244,9 @@
       <c r="BB82" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD82" t="s">
+        <v>276</v>
+      </c>
       <c r="BE82" s="1">
         <v>22201</v>
       </c>
@@ -9053,7 +9275,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>189</v>
       </c>
@@ -9105,6 +9327,9 @@
       <c r="BB83" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD83" t="s">
+        <v>276</v>
+      </c>
       <c r="BE83" s="1">
         <v>22201</v>
       </c>
@@ -9136,7 +9361,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="84" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>190</v>
       </c>
@@ -9182,6 +9407,9 @@
       <c r="AZ84" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD84" t="s">
+        <v>276</v>
+      </c>
       <c r="BE84" s="1">
         <v>22201</v>
       </c>
@@ -9213,7 +9441,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>199</v>
       </c>
@@ -9265,6 +9493,9 @@
       <c r="BB85" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD85" t="s">
+        <v>276</v>
+      </c>
       <c r="BE85" s="1">
         <v>22201</v>
       </c>
@@ -9290,7 +9521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>200</v>
       </c>
@@ -9339,6 +9570,9 @@
       <c r="BB86" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD86" t="s">
+        <v>276</v>
+      </c>
       <c r="BE86" s="1">
         <v>22201</v>
       </c>
@@ -9367,7 +9601,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>201</v>
       </c>
@@ -9416,6 +9650,9 @@
       <c r="BB87" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD87" t="s">
+        <v>276</v>
+      </c>
       <c r="BE87" s="1">
         <v>22201</v>
       </c>
@@ -9444,7 +9681,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>202</v>
       </c>
@@ -9487,6 +9724,9 @@
       <c r="AZ88" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD88" t="s">
+        <v>276</v>
+      </c>
       <c r="BE88" s="1">
         <v>22201</v>
       </c>
@@ -9518,7 +9758,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>203</v>
       </c>
@@ -9570,6 +9810,9 @@
       <c r="BB89" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD89" t="s">
+        <v>276</v>
+      </c>
       <c r="BE89" s="1">
         <v>22201</v>
       </c>
@@ -9595,7 +9838,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>204</v>
       </c>
@@ -9644,6 +9887,9 @@
       <c r="BB90" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD90" t="s">
+        <v>276</v>
+      </c>
       <c r="BE90" s="1">
         <v>22201</v>
       </c>
@@ -9672,7 +9918,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>205</v>
       </c>
@@ -9721,6 +9967,9 @@
       <c r="BB91" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD91" t="s">
+        <v>276</v>
+      </c>
       <c r="BE91" s="1">
         <v>22201</v>
       </c>
@@ -9749,7 +9998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>206</v>
       </c>
@@ -9792,6 +10041,9 @@
       <c r="AZ92" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD92" t="s">
+        <v>276</v>
+      </c>
       <c r="BE92" s="1">
         <v>22201</v>
       </c>
@@ -9823,7 +10075,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>207</v>
       </c>
@@ -9875,6 +10127,9 @@
       <c r="BB93" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD93" t="s">
+        <v>276</v>
+      </c>
       <c r="BE93" s="1">
         <v>22201</v>
       </c>
@@ -9903,7 +10158,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="94" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>208</v>
       </c>
@@ -9952,6 +10207,9 @@
       <c r="BB94" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD94" t="s">
+        <v>276</v>
+      </c>
       <c r="BE94" s="1">
         <v>22201</v>
       </c>
@@ -9983,7 +10241,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="95" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>209</v>
       </c>
@@ -10032,6 +10290,9 @@
       <c r="BB95" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD95" t="s">
+        <v>276</v>
+      </c>
       <c r="BE95" s="1">
         <v>22201</v>
       </c>
@@ -10063,7 +10324,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="96" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>210</v>
       </c>
@@ -10106,6 +10367,9 @@
       <c r="AW96" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="BD96" t="s">
+        <v>276</v>
+      </c>
       <c r="BE96" s="1">
         <v>22201</v>
       </c>
@@ -10140,7 +10404,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="97" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>211</v>
       </c>
@@ -10192,6 +10456,9 @@
       <c r="BB97" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD97" t="s">
+        <v>276</v>
+      </c>
       <c r="BE97" s="1">
         <v>22201</v>
       </c>
@@ -10220,7 +10487,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="98" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>212</v>
       </c>
@@ -10269,6 +10536,9 @@
       <c r="BB98" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD98" t="s">
+        <v>276</v>
+      </c>
       <c r="BE98" s="1">
         <v>22201</v>
       </c>
@@ -10300,7 +10570,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>213</v>
       </c>
@@ -10349,6 +10619,9 @@
       <c r="BB99" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD99" t="s">
+        <v>276</v>
+      </c>
       <c r="BE99" s="1">
         <v>22201</v>
       </c>
@@ -10380,7 +10653,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="100" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>215</v>
       </c>
@@ -10432,6 +10705,9 @@
       <c r="BA100" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="BD100" t="s">
+        <v>276</v>
+      </c>
       <c r="BE100" s="1">
         <v>22201</v>
       </c>
@@ -10457,7 +10733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>216</v>
       </c>
@@ -10506,6 +10782,9 @@
       <c r="BA101" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="BD101" t="s">
+        <v>276</v>
+      </c>
       <c r="BE101" s="1">
         <v>22201</v>
       </c>
@@ -10534,7 +10813,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>217</v>
       </c>
@@ -10583,6 +10862,9 @@
       <c r="BA102" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="BD102" t="s">
+        <v>276</v>
+      </c>
       <c r="BE102" s="1">
         <v>22201</v>
       </c>
@@ -10611,7 +10893,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>219</v>
       </c>
@@ -10666,6 +10948,9 @@
       <c r="BB103" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD103" t="s">
+        <v>276</v>
+      </c>
       <c r="BM103" s="1">
         <v>145</v>
       </c>
@@ -10688,7 +10973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>220</v>
       </c>
@@ -10740,6 +11025,9 @@
       <c r="BB104" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD104" t="s">
+        <v>276</v>
+      </c>
       <c r="BH104" s="1">
         <v>256072691</v>
       </c>
@@ -10765,7 +11053,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>221</v>
       </c>
@@ -10817,6 +11105,9 @@
       <c r="BB105" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD105" t="s">
+        <v>276</v>
+      </c>
       <c r="BH105" s="1">
         <v>256072691</v>
       </c>
@@ -10842,7 +11133,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>222</v>
       </c>
@@ -10888,6 +11179,9 @@
       <c r="AZ106" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD106" t="s">
+        <v>276</v>
+      </c>
       <c r="BF106" s="1" t="s">
         <v>323</v>
       </c>
@@ -10916,7 +11210,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>224</v>
       </c>
@@ -10970,6 +11264,9 @@
       </c>
       <c r="BB107" s="1" t="s">
         <v>321</v>
+      </c>
+      <c r="BD107" t="s">
+        <v>276</v>
       </c>
       <c r="BE107" s="1">
         <v>22201</v>
@@ -10997,7 +11294,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="108" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>225</v>
       </c>
@@ -11052,6 +11349,9 @@
       <c r="BB108" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD108" t="s">
+        <v>276</v>
+      </c>
       <c r="BE108" s="1">
         <v>22201</v>
       </c>
@@ -11077,7 +11377,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>226</v>
       </c>
@@ -11132,6 +11432,9 @@
       <c r="BB109" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD109" t="s">
+        <v>276</v>
+      </c>
       <c r="BE109" s="1">
         <v>22201</v>
       </c>
@@ -11157,7 +11460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>227</v>
       </c>
@@ -11211,6 +11514,9 @@
       </c>
       <c r="BB110" s="1" t="s">
         <v>321</v>
+      </c>
+      <c r="BD110" t="s">
+        <v>276</v>
       </c>
       <c r="BE110" s="1">
         <v>22201</v>
@@ -11235,7 +11541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>228</v>
       </c>
@@ -11290,6 +11596,9 @@
       <c r="BB111" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD111" t="s">
+        <v>276</v>
+      </c>
       <c r="BE111" s="1">
         <v>22201</v>
       </c>
@@ -11315,7 +11624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>244</v>
       </c>
@@ -11370,6 +11679,9 @@
       <c r="BB112" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD112" t="s">
+        <v>276</v>
+      </c>
       <c r="BE112" s="1">
         <v>22201</v>
       </c>
@@ -11395,7 +11707,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>392</v>
       </c>
@@ -11450,6 +11762,9 @@
       <c r="BB113" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD113" t="s">
+        <v>276</v>
+      </c>
       <c r="BE113" s="1">
         <v>22201</v>
       </c>
@@ -11475,7 +11790,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>394</v>
       </c>
@@ -11606,7 +11921,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>229</v>
       </c>
@@ -11658,6 +11973,9 @@
       <c r="BB115" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD115" t="s">
+        <v>276</v>
+      </c>
       <c r="BE115" s="1">
         <v>22201</v>
       </c>
@@ -11683,7 +12001,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>230</v>
       </c>
@@ -11735,6 +12053,9 @@
       <c r="BB116" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD116" t="s">
+        <v>276</v>
+      </c>
       <c r="BE116" s="1">
         <v>22201</v>
       </c>
@@ -11760,7 +12081,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>231</v>
       </c>
@@ -11806,6 +12127,9 @@
       <c r="AZ117" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD117" t="s">
+        <v>276</v>
+      </c>
       <c r="BE117" s="1">
         <v>22201</v>
       </c>
@@ -11834,7 +12158,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
@@ -11886,6 +12210,9 @@
       <c r="BB118" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD118" t="s">
+        <v>276</v>
+      </c>
       <c r="BE118" s="1">
         <v>22201</v>
       </c>
@@ -11914,7 +12241,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="119" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>233</v>
       </c>
@@ -11966,6 +12293,9 @@
       <c r="BB119" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD119" t="s">
+        <v>276</v>
+      </c>
       <c r="BE119" s="1">
         <v>22201</v>
       </c>
@@ -11994,7 +12324,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="120" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>234</v>
       </c>
@@ -12040,6 +12370,9 @@
       <c r="AZ120" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD120" t="s">
+        <v>276</v>
+      </c>
       <c r="BE120" s="1">
         <v>22201</v>
       </c>
@@ -12071,7 +12404,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="121" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>235</v>
       </c>
@@ -12123,6 +12456,9 @@
       <c r="BB121" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD121" t="s">
+        <v>276</v>
+      </c>
       <c r="BE121" s="1">
         <v>22201</v>
       </c>
@@ -12151,7 +12487,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="122" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>236</v>
       </c>
@@ -12203,6 +12539,9 @@
       <c r="BB122" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD122" t="s">
+        <v>276</v>
+      </c>
       <c r="BE122" s="1">
         <v>22201</v>
       </c>
@@ -12231,7 +12570,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="123" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>237</v>
       </c>
@@ -12283,6 +12622,9 @@
       <c r="BB123" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD123" t="s">
+        <v>276</v>
+      </c>
       <c r="BE123" s="1">
         <v>22201</v>
       </c>
@@ -12314,7 +12656,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="124" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>238</v>
       </c>
@@ -12366,6 +12708,9 @@
       <c r="BB124" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD124" t="s">
+        <v>276</v>
+      </c>
       <c r="BE124" s="1">
         <v>22201</v>
       </c>
@@ -12397,7 +12742,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="125" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>239</v>
       </c>
@@ -12449,6 +12794,9 @@
       <c r="BB125" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD125" t="s">
+        <v>276</v>
+      </c>
       <c r="BE125" s="1">
         <v>22201</v>
       </c>
@@ -12480,7 +12828,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="126" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>240</v>
       </c>
@@ -12526,6 +12874,9 @@
       <c r="AZ126" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD126" t="s">
+        <v>276</v>
+      </c>
       <c r="BE126" s="1">
         <v>22201</v>
       </c>
@@ -12560,7 +12911,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="127" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>241</v>
       </c>
@@ -12612,6 +12963,9 @@
       <c r="BB127" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD127" t="s">
+        <v>276</v>
+      </c>
       <c r="BE127" s="1">
         <v>22201</v>
       </c>
@@ -12643,7 +12997,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="128" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>242</v>
       </c>
@@ -12695,6 +13049,9 @@
       <c r="BB128" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD128" t="s">
+        <v>276</v>
+      </c>
       <c r="BE128" s="1">
         <v>22201</v>
       </c>
@@ -12726,7 +13083,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="129" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>243</v>
       </c>
@@ -12778,6 +13135,9 @@
       <c r="BB129" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD129" t="s">
+        <v>276</v>
+      </c>
       <c r="BE129" s="1">
         <v>22201</v>
       </c>
@@ -12812,7 +13172,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="130" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>195</v>
       </c>
@@ -12867,6 +13227,9 @@
       <c r="BB130" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD130" t="s">
+        <v>276</v>
+      </c>
       <c r="BE130" s="1">
         <v>22201</v>
       </c>
@@ -12892,7 +13255,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>196</v>
       </c>
@@ -12944,6 +13307,9 @@
       <c r="BB131" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD131" t="s">
+        <v>276</v>
+      </c>
       <c r="BE131" s="1">
         <v>22201</v>
       </c>
@@ -12972,7 +13338,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>197</v>
       </c>
@@ -13024,6 +13390,9 @@
       <c r="BB132" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD132" t="s">
+        <v>276</v>
+      </c>
       <c r="BE132" s="1">
         <v>22201</v>
       </c>
@@ -13052,7 +13421,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>198</v>
       </c>
@@ -13098,6 +13467,9 @@
       <c r="AZ133" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD133" t="s">
+        <v>276</v>
+      </c>
       <c r="BE133" s="1">
         <v>22201</v>
       </c>
@@ -13129,7 +13501,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>191</v>
       </c>
@@ -13184,6 +13556,9 @@
       <c r="BB134" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD134" t="s">
+        <v>276</v>
+      </c>
       <c r="BE134" s="1">
         <v>22201</v>
       </c>
@@ -13209,7 +13584,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>192</v>
       </c>
@@ -13261,6 +13636,9 @@
       <c r="BB135" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD135" t="s">
+        <v>276</v>
+      </c>
       <c r="BE135" s="1">
         <v>22201</v>
       </c>
@@ -13289,7 +13667,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>193</v>
       </c>
@@ -13341,6 +13719,9 @@
       <c r="BB136" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD136" t="s">
+        <v>276</v>
+      </c>
       <c r="BE136" s="1">
         <v>22201</v>
       </c>
@@ -13369,7 +13750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>194</v>
       </c>
@@ -13415,6 +13796,9 @@
       <c r="AZ137" s="1">
         <v>4106280790</v>
       </c>
+      <c r="BD137" t="s">
+        <v>276</v>
+      </c>
       <c r="BE137" s="1">
         <v>22201</v>
       </c>
@@ -13446,7 +13830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>191</v>
       </c>
@@ -13501,6 +13885,9 @@
       <c r="BB138" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD138" t="s">
+        <v>276</v>
+      </c>
       <c r="BE138" s="1">
         <v>22201</v>
       </c>
@@ -13526,7 +13913,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>192</v>
       </c>
@@ -13581,6 +13968,9 @@
       <c r="BB139" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD139" t="s">
+        <v>276</v>
+      </c>
       <c r="BE139" s="1">
         <v>22201</v>
       </c>
@@ -13609,7 +13999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>193</v>
       </c>
@@ -13664,6 +14054,9 @@
       <c r="BB140" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="BD140" t="s">
+        <v>276</v>
+      </c>
       <c r="BE140" s="1">
         <v>22201</v>
       </c>
@@ -13692,7 +14085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:73" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>194</v>
       </c>
@@ -13740,6 +14133,9 @@
       </c>
       <c r="AZ141" s="1">
         <v>4106280790</v>
+      </c>
+      <c r="BD141" t="s">
+        <v>276</v>
       </c>
       <c r="BE141" s="1">
         <v>22201</v>
@@ -13776,6 +14172,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -13788,82 +14187,82 @@
       <selection pane="topRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="6.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.3828125" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.3046875" style="2" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.69140625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="105" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.140625" style="1"/>
+    <col min="72" max="72" width="7.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -14081,7 +14480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>223</v>
       </c>
@@ -14158,7 +14557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -14239,7 +14638,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
@@ -14320,7 +14719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>156</v>
       </c>
@@ -14401,7 +14800,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>157</v>
       </c>
@@ -14479,7 +14878,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
@@ -14560,7 +14959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>159</v>
       </c>
@@ -14641,7 +15040,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
@@ -14722,7 +15121,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>161</v>
       </c>
@@ -14800,7 +15199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>162</v>
       </c>
@@ -14881,7 +15280,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>163</v>
       </c>
@@ -14962,7 +15361,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>164</v>
       </c>
@@ -15043,7 +15442,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
@@ -15127,7 +15526,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>167</v>
       </c>
@@ -15208,7 +15607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>168</v>
       </c>
@@ -15289,7 +15688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>169</v>
       </c>
@@ -15370,7 +15769,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>170</v>
       </c>
@@ -15448,7 +15847,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>171</v>
       </c>
@@ -15529,7 +15928,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>172</v>
       </c>
@@ -15610,7 +16009,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>173</v>
       </c>
@@ -15691,7 +16090,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>174</v>
       </c>
@@ -15769,7 +16168,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
@@ -15847,7 +16246,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>176</v>
       </c>
@@ -15925,7 +16324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>177</v>
       </c>
@@ -16003,7 +16402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>178</v>
       </c>
@@ -16078,7 +16477,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>179</v>
       </c>
@@ -16156,7 +16555,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>180</v>
       </c>
@@ -16234,7 +16633,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>181</v>
       </c>
@@ -16312,7 +16711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>182</v>
       </c>
@@ -16387,7 +16786,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>183</v>
       </c>
@@ -16466,7 +16865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>184</v>
       </c>
@@ -16545,7 +16944,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>185</v>
       </c>
@@ -16624,7 +17023,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>186</v>
       </c>
@@ -16700,7 +17099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>187</v>
       </c>
@@ -16781,7 +17180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>188</v>
       </c>
@@ -16862,7 +17261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>189</v>
       </c>
@@ -16943,7 +17342,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>190</v>
       </c>
@@ -17021,7 +17420,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>199</v>
       </c>
@@ -17099,7 +17498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>200</v>
       </c>
@@ -17177,7 +17576,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>201</v>
       </c>
@@ -17255,7 +17654,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>202</v>
       </c>
@@ -17330,7 +17729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>203</v>
       </c>
@@ -17408,7 +17807,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>204</v>
       </c>
@@ -17486,7 +17885,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>205</v>
       </c>
@@ -17564,7 +17963,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>206</v>
       </c>
@@ -17639,7 +18038,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>207</v>
       </c>
@@ -17717,7 +18116,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>208</v>
       </c>
@@ -17795,7 +18194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>209</v>
       </c>
@@ -17873,7 +18272,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>210</v>
       </c>
@@ -17948,7 +18347,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>211</v>
       </c>
@@ -18026,7 +18425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>212</v>
       </c>
@@ -18104,7 +18503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>213</v>
       </c>
@@ -18182,7 +18581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>215</v>
       </c>
@@ -18260,7 +18659,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>216</v>
       </c>
@@ -18338,7 +18737,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>217</v>
       </c>
@@ -18416,7 +18815,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>219</v>
       </c>
@@ -18494,7 +18893,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>220</v>
       </c>
@@ -18572,7 +18971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>221</v>
       </c>
@@ -18650,7 +19049,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>222</v>
       </c>
@@ -18725,7 +19124,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>224</v>
       </c>
@@ -18804,7 +19203,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>225</v>
       </c>
@@ -18885,7 +19284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>226</v>
       </c>
@@ -18966,7 +19365,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>227</v>
       </c>
@@ -19045,7 +19444,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>228</v>
       </c>
@@ -19126,7 +19525,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>244</v>
       </c>
@@ -19207,7 +19606,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>392</v>
       </c>
@@ -19288,7 +19687,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>394</v>
       </c>
@@ -19419,7 +19818,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>229</v>
       </c>
@@ -19497,7 +19896,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>230</v>
       </c>
@@ -19575,7 +19974,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>231</v>
       </c>
@@ -19650,7 +20049,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>232</v>
       </c>
@@ -19728,7 +20127,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>233</v>
       </c>
@@ -19806,7 +20205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>234</v>
       </c>
@@ -19881,7 +20280,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>235</v>
       </c>
@@ -19959,7 +20358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>236</v>
       </c>
@@ -20037,7 +20436,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -20118,7 +20517,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>238</v>
       </c>
@@ -20199,7 +20598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -20280,7 +20679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>240</v>
       </c>
@@ -20358,7 +20757,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>241</v>
       </c>
@@ -20439,7 +20838,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>242</v>
       </c>
@@ -20520,7 +20919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>243</v>
       </c>
@@ -20604,7 +21003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>195</v>
       </c>
@@ -20685,7 +21084,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>196</v>
       </c>
@@ -20766,7 +21165,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>197</v>
       </c>
@@ -20847,7 +21246,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>198</v>
       </c>
@@ -20925,7 +21324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>191</v>
       </c>
@@ -21006,7 +21405,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>192</v>
       </c>
@@ -21087,7 +21486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>193</v>
       </c>
@@ -21168,7 +21567,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>194</v>
       </c>
@@ -21246,7 +21645,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>191</v>
       </c>
@@ -21327,7 +21726,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>192</v>
       </c>
@@ -21411,7 +21810,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>193</v>
       </c>
@@ -21495,7 +21894,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>194</v>
       </c>
@@ -21579,6 +21978,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -21590,83 +21992,83 @@
       <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="1"/>
-    <col min="41" max="41" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.15234375" style="1"/>
+    <col min="41" max="41" width="8.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.3828125" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.69140625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.140625" style="1"/>
+    <col min="66" max="66" width="10.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -21884,7 +22286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -22006,7 +22408,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -22131,7 +22533,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -22256,7 +22658,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>112</v>
       </c>
@@ -22381,7 +22783,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
@@ -22404,7 +22806,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -22427,7 +22829,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
@@ -22452,6 +22854,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -22463,14 +22868,14 @@
       <selection sqref="A1:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="56.7109375" style="1"/>
+    <col min="1" max="1" width="45.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.84375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="56.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -22478,7 +22883,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
@@ -22486,7 +22891,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -22494,7 +22899,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>122</v>
       </c>
@@ -22502,7 +22907,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -22510,7 +22915,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -22518,7 +22923,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
@@ -22526,7 +22931,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -22534,7 +22939,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
@@ -22542,7 +22947,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>124</v>
       </c>
@@ -22550,7 +22955,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -22558,7 +22963,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>126</v>
       </c>
@@ -22566,7 +22971,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
@@ -22574,7 +22979,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>132</v>
       </c>
@@ -22582,7 +22987,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>133</v>
       </c>
@@ -22590,7 +22995,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>134</v>
       </c>
@@ -22598,7 +23003,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>137</v>
       </c>
@@ -22606,7 +23011,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>138</v>
       </c>
@@ -22614,7 +23019,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>139</v>
       </c>
@@ -22622,7 +23027,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>140</v>
       </c>
@@ -22630,7 +23035,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
@@ -22638,7 +23043,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>142</v>
       </c>
@@ -22646,7 +23051,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>143</v>
       </c>
@@ -22654,7 +23059,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>144</v>
       </c>
@@ -22662,7 +23067,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -22670,7 +23075,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -22678,7 +23083,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -22686,7 +23091,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -22694,7 +23099,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -22702,12 +23107,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>149</v>
       </c>
@@ -22715,7 +23120,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -22723,7 +23128,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
@@ -22731,12 +23136,12 @@
         <v>495</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>154</v>
       </c>
@@ -22744,7 +23149,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>155</v>
       </c>
@@ -22752,7 +23157,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>156</v>
       </c>
@@ -22760,7 +23165,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>157</v>
       </c>
@@ -22768,7 +23173,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -22776,7 +23181,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>159</v>
       </c>
@@ -22784,7 +23189,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -22792,7 +23197,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>161</v>
       </c>
@@ -22800,7 +23205,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>162</v>
       </c>
@@ -22808,7 +23213,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>163</v>
       </c>
@@ -22816,7 +23221,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>164</v>
       </c>
@@ -22824,7 +23229,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>165</v>
       </c>
@@ -22832,7 +23237,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>167</v>
       </c>
@@ -22843,7 +23248,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>168</v>
       </c>
@@ -22854,7 +23259,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>169</v>
       </c>
@@ -22865,7 +23270,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>170</v>
       </c>
@@ -22876,7 +23281,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>171</v>
       </c>
@@ -22884,7 +23289,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>172</v>
       </c>
@@ -22892,7 +23297,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>173</v>
       </c>
@@ -22900,7 +23305,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>174</v>
       </c>
@@ -22908,7 +23313,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>175</v>
       </c>
@@ -22916,7 +23321,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>176</v>
       </c>
@@ -22924,7 +23329,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>177</v>
       </c>
@@ -22932,7 +23337,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>178</v>
       </c>
@@ -22940,7 +23345,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>179</v>
       </c>
@@ -22948,7 +23353,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>180</v>
       </c>
@@ -22956,7 +23361,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>181</v>
       </c>
@@ -22964,7 +23369,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>182</v>
       </c>
@@ -22972,7 +23377,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>183</v>
       </c>
@@ -22980,7 +23385,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>184</v>
       </c>
@@ -22988,7 +23393,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>185</v>
       </c>
@@ -22996,7 +23401,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>186</v>
       </c>
@@ -23004,7 +23409,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>187</v>
       </c>
@@ -23012,7 +23417,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>188</v>
       </c>
@@ -23020,7 +23425,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>189</v>
       </c>
@@ -23028,7 +23433,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>190</v>
       </c>
@@ -23036,7 +23441,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>191</v>
       </c>
@@ -23044,7 +23449,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>192</v>
       </c>
@@ -23052,7 +23457,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
@@ -23060,7 +23465,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>194</v>
       </c>
@@ -23068,7 +23473,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>195</v>
       </c>
@@ -23076,7 +23481,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
@@ -23084,7 +23489,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>197</v>
       </c>
@@ -23092,7 +23497,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>198</v>
       </c>
@@ -23100,7 +23505,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>199</v>
       </c>
@@ -23108,7 +23513,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>200</v>
       </c>
@@ -23116,7 +23521,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>201</v>
       </c>
@@ -23124,7 +23529,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>202</v>
       </c>
@@ -23132,7 +23537,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>203</v>
       </c>
@@ -23140,7 +23545,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>204</v>
       </c>
@@ -23148,7 +23553,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>205</v>
       </c>
@@ -23156,7 +23561,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>206</v>
       </c>
@@ -23164,7 +23569,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>207</v>
       </c>
@@ -23172,7 +23577,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>208</v>
       </c>
@@ -23180,7 +23585,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>209</v>
       </c>
@@ -23188,7 +23593,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>210</v>
       </c>
@@ -23196,7 +23601,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>211</v>
       </c>
@@ -23204,7 +23609,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>212</v>
       </c>
@@ -23215,7 +23620,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>213</v>
       </c>
@@ -23226,7 +23631,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>214</v>
       </c>
@@ -23237,12 +23642,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D122" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>215</v>
       </c>
@@ -23250,7 +23655,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>216</v>
       </c>
@@ -23258,7 +23663,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>217</v>
       </c>
@@ -23266,7 +23671,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>218</v>
       </c>
@@ -23274,7 +23679,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>219</v>
       </c>
@@ -23282,7 +23687,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>220</v>
       </c>
@@ -23290,7 +23695,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>221</v>
       </c>
@@ -23298,7 +23703,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>222</v>
       </c>
@@ -23306,7 +23711,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>223</v>
       </c>
@@ -23314,7 +23719,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>224</v>
       </c>
@@ -23322,7 +23727,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>225</v>
       </c>
@@ -23330,7 +23735,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>226</v>
       </c>
@@ -23338,7 +23743,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>227</v>
       </c>
@@ -23346,7 +23751,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>228</v>
       </c>
@@ -23354,7 +23759,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>244</v>
       </c>
@@ -23362,7 +23767,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>229</v>
       </c>
@@ -23370,7 +23775,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>230</v>
       </c>
@@ -23378,7 +23783,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>231</v>
       </c>
@@ -23386,7 +23791,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>232</v>
       </c>
@@ -23394,7 +23799,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>233</v>
       </c>
@@ -23402,7 +23807,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>234</v>
       </c>
@@ -23410,7 +23815,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>235</v>
       </c>
@@ -23418,7 +23823,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>236</v>
       </c>
@@ -23426,7 +23831,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>237</v>
       </c>
@@ -23434,7 +23839,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>238</v>
       </c>
@@ -23442,7 +23847,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>239</v>
       </c>
@@ -23450,7 +23855,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>240</v>
       </c>
@@ -23458,7 +23863,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>241</v>
       </c>
@@ -23466,7 +23871,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>242</v>
       </c>
@@ -23474,7 +23879,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>243</v>
       </c>
@@ -23485,6 +23890,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -23496,14 +23904,14 @@
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.3828125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>149</v>
       </c>
@@ -23511,7 +23919,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>115</v>
       </c>
@@ -23519,7 +23927,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>116</v>
       </c>
@@ -23527,10 +23935,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>153</v>
       </c>
@@ -23538,7 +23946,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>264</v>
       </c>
@@ -23546,7 +23954,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>267</v>
       </c>
@@ -23554,7 +23962,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>265</v>
       </c>
@@ -23562,7 +23970,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>266</v>
       </c>
@@ -23570,7 +23978,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>268</v>
       </c>
@@ -23578,7 +23986,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>269</v>
       </c>
@@ -23586,7 +23994,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>154</v>
       </c>
@@ -23594,7 +24002,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>155</v>
       </c>
@@ -23602,7 +24010,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>156</v>
       </c>
@@ -23610,7 +24018,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>157</v>
       </c>
@@ -23618,7 +24026,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>158</v>
       </c>
@@ -23626,7 +24034,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>159</v>
       </c>
@@ -23634,7 +24042,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>160</v>
       </c>
@@ -23642,7 +24050,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>161</v>
       </c>
@@ -23650,7 +24058,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>162</v>
       </c>
@@ -23658,7 +24066,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>163</v>
       </c>
@@ -23666,7 +24074,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>164</v>
       </c>
@@ -23674,7 +24082,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>165</v>
       </c>
@@ -23682,7 +24090,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>167</v>
       </c>
@@ -23690,7 +24098,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>168</v>
       </c>
@@ -23698,7 +24106,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>169</v>
       </c>
@@ -23706,7 +24114,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>170</v>
       </c>
@@ -23714,7 +24122,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>171</v>
       </c>
@@ -23722,7 +24130,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>172</v>
       </c>
@@ -23730,7 +24138,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>173</v>
       </c>
@@ -23738,7 +24146,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>174</v>
       </c>
@@ -23746,7 +24154,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>175</v>
       </c>
@@ -23754,7 +24162,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>176</v>
       </c>
@@ -23762,7 +24170,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>177</v>
       </c>
@@ -23770,7 +24178,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>178</v>
       </c>
@@ -23778,10 +24186,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>179</v>
       </c>
@@ -23789,7 +24197,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>180</v>
       </c>
@@ -23797,7 +24205,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
         <v>181</v>
       </c>
@@ -23805,7 +24213,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
         <v>182</v>
       </c>
@@ -23813,7 +24221,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>183</v>
       </c>
@@ -23821,7 +24229,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>184</v>
       </c>
@@ -23829,7 +24237,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>185</v>
       </c>
@@ -23837,7 +24245,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>186</v>
       </c>
@@ -23845,10 +24253,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>187</v>
       </c>
@@ -23856,7 +24264,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>188</v>
       </c>
@@ -23864,7 +24272,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>189</v>
       </c>
@@ -23872,7 +24280,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>190</v>
       </c>
@@ -23880,7 +24288,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>191</v>
       </c>
@@ -23888,7 +24296,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>192</v>
       </c>
@@ -23896,7 +24304,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>193</v>
       </c>
@@ -23904,7 +24312,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
         <v>194</v>
       </c>
@@ -23912,7 +24320,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>195</v>
       </c>
@@ -23920,7 +24328,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
         <v>196</v>
       </c>
@@ -23928,7 +24336,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
         <v>197</v>
       </c>
@@ -23936,7 +24344,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
         <v>198</v>
       </c>
@@ -23944,7 +24352,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
         <v>199</v>
       </c>
@@ -23952,7 +24360,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
         <v>200</v>
       </c>
@@ -23960,7 +24368,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
         <v>201</v>
       </c>
@@ -23968,7 +24376,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
         <v>202</v>
       </c>
@@ -23976,10 +24384,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="4" t="s">
         <v>203</v>
       </c>
@@ -23987,7 +24395,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
         <v>204</v>
       </c>
@@ -23995,7 +24403,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="4" t="s">
         <v>205</v>
       </c>
@@ -24003,7 +24411,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="4" t="s">
         <v>206</v>
       </c>
@@ -24011,10 +24419,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="4" t="s">
         <v>207</v>
       </c>
@@ -24022,7 +24430,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="4" t="s">
         <v>208</v>
       </c>
@@ -24030,7 +24438,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="4" t="s">
         <v>209</v>
       </c>
@@ -24038,7 +24446,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="4" t="s">
         <v>210</v>
       </c>
@@ -24046,10 +24454,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
         <v>211</v>
       </c>
@@ -24057,7 +24465,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
         <v>212</v>
       </c>
@@ -24065,7 +24473,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
         <v>213</v>
       </c>
@@ -24073,7 +24481,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
         <v>214</v>
       </c>
@@ -24081,10 +24489,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="4" t="s">
         <v>215</v>
       </c>
@@ -24092,7 +24500,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="4" t="s">
         <v>216</v>
       </c>
@@ -24100,7 +24508,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
         <v>217</v>
       </c>
@@ -24108,7 +24516,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="4" t="s">
         <v>218</v>
       </c>
@@ -24116,10 +24524,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="4" t="s">
         <v>219</v>
       </c>
@@ -24127,7 +24535,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="4" t="s">
         <v>220</v>
       </c>
@@ -24135,7 +24543,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="4" t="s">
         <v>221</v>
       </c>
@@ -24143,7 +24551,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="4" t="s">
         <v>222</v>
       </c>
@@ -24151,7 +24559,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="4" t="s">
         <v>223</v>
       </c>
@@ -24159,7 +24567,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="4" t="s">
         <v>224</v>
       </c>
@@ -24167,7 +24575,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="4" t="s">
         <v>225</v>
       </c>
@@ -24175,7 +24583,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="4" t="s">
         <v>226</v>
       </c>
@@ -24183,7 +24591,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="4" t="s">
         <v>227</v>
       </c>
@@ -24191,7 +24599,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="4" t="s">
         <v>228</v>
       </c>
@@ -24199,7 +24607,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="4" t="s">
         <v>244</v>
       </c>
@@ -24207,7 +24615,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="4" t="s">
         <v>229</v>
       </c>
@@ -24215,7 +24623,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="4" t="s">
         <v>230</v>
       </c>
@@ -24223,7 +24631,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="4" t="s">
         <v>231</v>
       </c>
@@ -24231,10 +24639,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="4" t="s">
         <v>232</v>
       </c>
@@ -24242,7 +24650,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="4" t="s">
         <v>233</v>
       </c>
@@ -24250,7 +24658,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="4" t="s">
         <v>234</v>
       </c>
@@ -24258,10 +24666,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="4" t="s">
         <v>235</v>
       </c>
@@ -24269,7 +24677,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="4" t="s">
         <v>236</v>
       </c>
@@ -24277,7 +24685,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="4" t="s">
         <v>237</v>
       </c>
@@ -24285,10 +24693,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="4" t="s">
         <v>238</v>
       </c>
@@ -24296,7 +24704,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="4" t="s">
         <v>239</v>
       </c>
@@ -24304,7 +24712,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="4" t="s">
         <v>240</v>
       </c>
@@ -24312,10 +24720,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="4" t="s">
         <v>241</v>
       </c>
@@ -24323,7 +24731,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="4" t="s">
         <v>242</v>
       </c>
@@ -24331,7 +24739,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="4" t="s">
         <v>243</v>
       </c>
@@ -24339,12 +24747,15 @@
         <v>495</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>245</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>